--- a/notas_ECO.xlsx
+++ b/notas_ECO.xlsx
@@ -79,50 +79,50 @@
     <t>Y8991206</t>
   </si>
   <si>
-    <t>20084242_VTRS.md</t>
-  </si>
-  <si>
-    <t>Y3617589_QMJQ.md</t>
-  </si>
-  <si>
-    <t>74390935_EBPA.md</t>
-  </si>
-  <si>
-    <t>20525412_MAUM.md</t>
-  </si>
-  <si>
-    <t>74529750_EVXX.md</t>
-  </si>
-  <si>
-    <t>48772387_FJKL.md</t>
-  </si>
-  <si>
-    <t>74396578_POHM.md</t>
-  </si>
-  <si>
-    <t>48686505_YDYX.md</t>
-  </si>
-  <si>
-    <t>20097517_QOTH.md</t>
-  </si>
-  <si>
-    <t>21805491_RDON.md</t>
-  </si>
-  <si>
-    <t>49433313_MTCO.md</t>
-  </si>
-  <si>
-    <t>B00528057_YPFV.md</t>
-  </si>
-  <si>
-    <t>Y8991206_XTNW.md</t>
+    <t>https://albarran.github.io/Evaluacion/20084242_VTRS.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/Y3617589_QMJQ.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/74390935_EBPA.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/20525412_MAUM.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/74529750_EVXX.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/48772387_FJKL.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/74396578_POHM.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/48686505_YDYX.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/20097517_QOTH.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/21805491_RDON.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/49433313_MTCO.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/B00528057_YPFV.html</t>
+  </si>
+  <si>
+    <t>https://albarran.github.io/Evaluacion/Y8991206_XTNW.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,16 +178,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,7 +516,7 @@
       <c r="B2">
         <v>20084242</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -514,7 +527,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -528,7 +541,7 @@
       <c r="C4">
         <v>8.300000000000001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -542,7 +555,7 @@
       <c r="C5">
         <v>1.8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -556,7 +569,7 @@
       <c r="C6">
         <v>8.300000000000001</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -567,7 +580,7 @@
       <c r="B7">
         <v>48772387</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -581,7 +594,7 @@
       <c r="C8">
         <v>8.4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -595,7 +608,7 @@
       <c r="C9">
         <v>9.300000000000001</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -609,7 +622,7 @@
       <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -620,7 +633,7 @@
       <c r="B11">
         <v>21805491</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -634,7 +647,7 @@
       <c r="C12">
         <v>4.1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -648,7 +661,7 @@
       <c r="C13">
         <v>6.4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -662,11 +675,26 @@
       <c r="C14">
         <v>9.6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>